--- a/scripts/bootstrap/measurement_data/synthetic_gut.xlsx
+++ b/scripts/bootstrap/measurement_data/synthetic_gut.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Growth data per community" sheetId="1" state="visible" r:id="rId3"/>
@@ -129,7 +129,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Roseburia intestinalis, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">Abundances values per time-point for strain Roseburia intestinalis L1-82, use a period (.) as the decimal separator.</t>
         </r>
       </text>
     </comment>
@@ -201,7 +201,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Collinsella aerofaciens, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">Abundances values per time-point for strain Bacteroides thetaiotaomicron VPI-5482, use a period (.) as the decimal separator.</t>
         </r>
       </text>
     </comment>
@@ -225,7 +225,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Bacteroides thetaiotaomicron, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">Abundances values per time-point for strain Collinsella aerofaciens RCC 1377, use a period (.) as the decimal separator.</t>
         </r>
       </text>
     </comment>
@@ -460,10 +460,10 @@
     <t xml:space="preserve">biorep6</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseburia intestinalis rRNA reads</t>
+    <t xml:space="preserve">Roseburia intestinalis L1-82 rRNA reads</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseburia intestinalis rRNA reads STD</t>
+    <t xml:space="preserve">Roseburia intestinalis L1-82 rRNA reads STD</t>
   </si>
   <si>
     <t xml:space="preserve">Blautia hydrogenotrophica DSM 10507 rRNA reads</t>
@@ -478,16 +478,16 @@
     <t xml:space="preserve">Prevotella copri DSM 18205 rRNA reads STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteroides thetaiotaomicron rRNA reads</t>
+    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 rRNA reads</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteroides thetaiotaomicron rRNA reads STD</t>
+    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 rRNA reads STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Collinsella aerofaciens rRNA reads</t>
+    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 rRNA reads</t>
   </si>
   <si>
-    <t xml:space="preserve">Collinsella aerofaciens rRNA reads STD</t>
+    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 rRNA reads STD</t>
   </si>
   <si>
     <t xml:space="preserve">pyruvate</t>
@@ -650,7 +650,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -663,7 +663,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,12 +938,12 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="D38" activeCellId="1" sqref="F1:G1 D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -961,506 +969,506 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3" t="n">
         <v>1815105000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
         <v>648284000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="3" t="n">
         <v>421409000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="3" t="n">
         <v>474813000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3" t="n">
         <v>538687000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="3" t="n">
         <v>467342000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3" t="n">
         <v>1768334000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="3" t="n">
         <v>582017000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="3" t="n">
         <v>586625000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3" t="n">
         <v>634992000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3" t="n">
         <v>353479000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="3" t="n">
         <v>278781000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="n">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="3" t="n">
         <v>1738037000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="3" t="n">
         <v>763283000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="3" t="n">
         <v>628483000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="3" t="n">
         <v>580521000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="3" t="n">
         <v>373867000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="3" t="n">
         <v>379242000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="n">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="3" t="n">
         <v>1477707000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="3" t="n">
         <v>641595000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="n">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="3" t="n">
         <v>590697000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="n">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="3" t="n">
         <v>561941000</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="n">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="3" t="n">
         <v>486101000</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="n">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="3" t="n">
         <v>443147000</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="n">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="3" t="n">
         <v>2186964000</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="n">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="3" t="n">
         <v>386580000</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="n">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="3" t="n">
         <v>584607000</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="n">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="3" t="n">
         <v>418760000</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="n">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="3" t="n">
         <v>347605000</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="n">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="3" t="n">
         <v>445687000</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="n">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="3" t="n">
         <v>1150367000</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="n">
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="3" t="n">
         <v>652770000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="n">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="3" t="n">
         <v>575720000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="n">
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="3" t="n">
         <v>611842000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="n">
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="3" t="n">
         <v>470844000</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="n">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="3" t="n">
         <v>331865000</v>
       </c>
     </row>
@@ -1489,12 +1497,12 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="J38" activeCellId="0" sqref="J38"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,8 +1516,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="34.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="40.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="44.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="31.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="35.19"/>
   </cols>
@@ -1530,10 +1538,10 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1542,10 +1550,10 @@
       <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1556,1478 +1564,1478 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="3" t="n">
         <v>111125650.643762</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="3" t="n">
         <v>9667615.11573597</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="3" t="n">
         <v>163557730.543408</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="3" t="n">
         <v>29980381.8378275</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="3" t="n">
         <v>284613.220203147</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="3" t="n">
         <v>125144.085958914</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="3" t="n">
         <v>1364321932.3658</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="3" t="n">
         <v>39717926.5993407</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="3" t="n">
         <v>175587382.650661</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="3" t="n">
         <v>10378979.2529619</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
         <v>62086359.3937463</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="3" t="n">
         <v>11549990.6078733</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="3" t="n">
         <v>206835869.470412</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="3" t="n">
         <v>57128807.0758775</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="3" t="n">
         <v>43463.3491322312</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="3" t="n">
         <v>18372.2319370242</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="3" t="n">
         <v>329328005.424792</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="3" t="n">
         <v>56244160.7038554</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="3" t="n">
         <v>49975400.6422147</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M3" s="3" t="n">
         <v>13301049.8598936</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="3" t="n">
         <v>23408658.8272383</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="3" t="n">
         <v>13248711.4181049</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="3" t="n">
         <v>224408263.666456</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="3" t="n">
         <v>28491067.1151046</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="3" t="n">
         <v>139814259.64691</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="3" t="n">
         <v>26803909.0107517</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="3" t="n">
         <v>33777817.8593947</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" s="3" t="n">
         <v>6385046.18848745</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="3" t="n">
         <v>25698381.6865587</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="3" t="n">
         <v>16626032.4575334</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="3" t="n">
         <v>267562631.36607</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="3" t="n">
         <v>24231817.2924381</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J5" s="3" t="n">
         <v>147803941.180906</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="3" t="n">
         <v>32234303.640975</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L5" s="3" t="n">
         <v>33748045.7664649</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M5" s="3" t="n">
         <v>4401127.49293077</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="3" t="n">
         <v>31019258.3397739</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="3" t="n">
         <v>13057073.9487162</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="3" t="n">
         <v>319856601.261301</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="3" t="n">
         <v>14057712.3005864</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" s="3" t="n">
         <v>153630652.922066</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="3" t="n">
         <v>6823336.78698395</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L6" s="3" t="n">
         <v>34180487.4768589</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M6" s="3" t="n">
         <v>3536792.06413413</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="3" t="n">
         <v>30134570.0277081</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="3" t="n">
         <v>7554117.90614701</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="3" t="n">
         <v>256429854.222027</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="3" t="n">
         <v>20834120.1013652</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J7" s="3" t="n">
         <v>135954578.989381</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="3" t="n">
         <v>4914697.56476991</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L7" s="3" t="n">
         <v>44822996.7608837</v>
       </c>
-      <c r="M7" s="1" t="n">
+      <c r="M7" s="3" t="n">
         <v>17959643.1472684</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="3" t="n">
         <v>139001921.457622</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="3" t="n">
         <v>12237667.9124019</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="3" t="n">
         <v>401360936.92368</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="3" t="n">
         <v>76450644.311062</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="3" t="n">
         <v>124447.491073076</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="3" t="n">
         <v>89869.6937186725</v>
       </c>
-      <c r="J8" s="1" t="n">
+      <c r="J8" s="3" t="n">
         <v>1101109369.2188</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="3" t="n">
         <v>27107320.2726234</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L8" s="3" t="n">
         <v>126737324.908821</v>
       </c>
-      <c r="M8" s="1" t="n">
+      <c r="M8" s="3" t="n">
         <v>81639305.3033034</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="3" t="n">
         <v>34306718.2364638</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="3" t="n">
         <v>9555591.29403411</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="3" t="n">
         <v>280373284.323361</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="3" t="n">
         <v>15756900.50412</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="3" t="n">
         <v>19753.3196315825</v>
       </c>
-      <c r="J9" s="1" t="n">
+      <c r="J9" s="3" t="n">
         <v>245763272.88186</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="3" t="n">
         <v>7763744.70106894</v>
       </c>
-      <c r="L9" s="1" t="n">
+      <c r="L9" s="3" t="n">
         <v>21557761.7580509</v>
       </c>
-      <c r="M9" s="1" t="n">
+      <c r="M9" s="3" t="n">
         <v>2619408.80225015</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="3" t="n">
         <v>21756153.0681052</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="3" t="n">
         <v>15389986.7090576</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="3" t="n">
         <v>349784469.893769</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="3" t="n">
         <v>24521744.637886</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="3" t="n">
         <v>185288498.612693</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="3" t="n">
         <v>23636223.7703556</v>
       </c>
-      <c r="L10" s="1" t="n">
+      <c r="L10" s="3" t="n">
         <v>29780315.1564728</v>
       </c>
-      <c r="M10" s="1" t="n">
+      <c r="M10" s="3" t="n">
         <v>5206504.24289769</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="3" t="n">
         <v>25822571.3864742</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="3" t="n">
         <v>18753019.2421454</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="3" t="n">
         <v>371807603.948725</v>
       </c>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="3" t="n">
         <v>45566432.1590755</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="3" t="n">
         <v>15593.3402092235</v>
       </c>
-      <c r="I11" s="1" t="n">
+      <c r="I11" s="3" t="n">
         <v>7350.77106886053</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="3" t="n">
         <v>187269778.576691</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="3" t="n">
         <v>52225026.012132</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="3" t="n">
         <v>50076452.7479004</v>
       </c>
-      <c r="M11" s="1" t="n">
+      <c r="M11" s="3" t="n">
         <v>9462720.97658296</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="3" t="n">
         <v>15130793.9326594</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="3" t="n">
         <v>7776535.8544685</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="3" t="n">
         <v>204281993.595312</v>
       </c>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="3" t="n">
         <v>17628915.7104715</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="1" t="n">
+      <c r="I12" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="n">
+      <c r="J12" s="3" t="n">
         <v>96116618.8404952</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="3" t="n">
         <v>24145912.2478137</v>
       </c>
-      <c r="L12" s="1" t="n">
+      <c r="L12" s="3" t="n">
         <v>37949593.6315332</v>
       </c>
-      <c r="M12" s="1" t="n">
+      <c r="M12" s="3" t="n">
         <v>2945590.5820319</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="3" t="n">
         <v>12022223.7236269</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="3" t="n">
         <v>3941390.12346687</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="3" t="n">
         <v>168905712.339273</v>
       </c>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="3" t="n">
         <v>1332851.71299782</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="1" t="n">
+      <c r="I13" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="1" t="n">
+      <c r="J13" s="3" t="n">
         <v>75011152.3491382</v>
       </c>
-      <c r="K13" s="1" t="n">
+      <c r="K13" s="3" t="n">
         <v>5562050.42547659</v>
       </c>
-      <c r="L13" s="1" t="n">
+      <c r="L13" s="3" t="n">
         <v>22838149.7448153</v>
       </c>
-      <c r="M13" s="1" t="n">
+      <c r="M13" s="3" t="n">
         <v>1305626.00833239</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="n">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="3" t="n">
         <v>117082745.030936</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="3" t="n">
         <v>11579664.7430717</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14" s="3" t="n">
         <v>350309068.688815</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="3" t="n">
         <v>17965393.6907756</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="3" t="n">
         <v>516541.522195304</v>
       </c>
-      <c r="I14" s="1" t="n">
+      <c r="I14" s="3" t="n">
         <v>211584.559101681</v>
       </c>
-      <c r="J14" s="1" t="n">
+      <c r="J14" s="3" t="n">
         <v>1146534345.99278</v>
       </c>
-      <c r="K14" s="1" t="n">
+      <c r="K14" s="3" t="n">
         <v>52316090.6548429</v>
       </c>
-      <c r="L14" s="1" t="n">
+      <c r="L14" s="3" t="n">
         <v>123594298.765276</v>
       </c>
-      <c r="M14" s="1" t="n">
+      <c r="M14" s="3" t="n">
         <v>26560917.5313523</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="3" t="n">
         <v>44203482.6474031</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="3" t="n">
         <v>13474565.9259914</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="3" t="n">
         <v>357612316.070519</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="3" t="n">
         <v>24428427.8365569</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="3" t="n">
         <v>41192.6727483425</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="3" t="n">
         <v>19418.4121570342</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="3" t="n">
         <v>326710321.932399</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="3" t="n">
         <v>6109774.41204844</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="3" t="n">
         <v>34715686.6769304</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="3" t="n">
         <v>18073088.0406219</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="3" t="n">
         <v>24359343.4950457</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16" s="3" t="n">
         <v>13896531.1919189</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="3" t="n">
         <v>373474943.405705</v>
       </c>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="3" t="n">
         <v>26057991.9293177</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="n">
+      <c r="J16" s="3" t="n">
         <v>206633920.014095</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="3" t="n">
         <v>15569776.1677126</v>
       </c>
-      <c r="L16" s="1" t="n">
+      <c r="L16" s="3" t="n">
         <v>24014793.0851538</v>
       </c>
-      <c r="M16" s="1" t="n">
+      <c r="M16" s="3" t="n">
         <v>6027682.1622738</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="3" t="n">
         <v>21896422.8404483</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="3" t="n">
         <v>15782079.8300247</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="3" t="n">
         <v>345026870.884751</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="3" t="n">
         <v>16810008.9388667</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="n">
+      <c r="J17" s="3" t="n">
         <v>172045974.237998</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="3" t="n">
         <v>26866484.874949</v>
       </c>
-      <c r="L17" s="1" t="n">
+      <c r="L17" s="3" t="n">
         <v>41551732.0368029</v>
       </c>
-      <c r="M17" s="1" t="n">
+      <c r="M17" s="3" t="n">
         <v>5774918.60100067</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="3" t="n">
         <v>13887455.6921207</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18" s="3" t="n">
         <v>8952463.3984906</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="3" t="n">
         <v>219092581.453323</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="3" t="n">
         <v>14726773.0315465</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="3" t="n">
         <v>12269.4776388026</v>
       </c>
-      <c r="J18" s="1" t="n">
+      <c r="J18" s="3" t="n">
         <v>101269459.871758</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="3" t="n">
         <v>9341569.8221954</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" s="3" t="n">
         <v>39617502.9827978</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" s="3" t="n">
         <v>3925285.18360565</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="3" t="n">
         <v>14581683.6933653</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="3" t="n">
         <v>6111510.40117672</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="3" t="n">
         <v>219693732.223195</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="3" t="n">
         <v>2869291.45689083</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="3" t="n">
         <v>4761.79178368361</v>
       </c>
-      <c r="J19" s="1" t="n">
+      <c r="J19" s="3" t="n">
         <v>112657412.026168</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="3" t="n">
         <v>5312009.21003411</v>
       </c>
-      <c r="L19" s="1" t="n">
+      <c r="L19" s="3" t="n">
         <v>32306554.552346</v>
       </c>
-      <c r="M19" s="1" t="n">
+      <c r="M19" s="3" t="n">
         <v>2050067.83361472</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="n">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="3" t="n">
         <v>112992005.465688</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="3" t="n">
         <v>20289896.9220012</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20" s="3" t="n">
         <v>220273223.651521</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="G20" s="3" t="n">
         <v>83808992.2211626</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I20" s="1" t="n">
+      <c r="I20" s="3" t="n">
         <v>65783.7119979218</v>
       </c>
-      <c r="J20" s="1" t="n">
+      <c r="J20" s="3" t="n">
         <v>917805098.548004</v>
       </c>
-      <c r="K20" s="1" t="n">
+      <c r="K20" s="3" t="n">
         <v>114460189.890231</v>
       </c>
-      <c r="L20" s="1" t="n">
+      <c r="L20" s="3" t="n">
         <v>226636672.334787</v>
       </c>
-      <c r="M20" s="1" t="n">
+      <c r="M20" s="3" t="n">
         <v>28068429.3405182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="3" t="n">
         <v>32677379.4464539</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="3" t="n">
         <v>13943369.3681601</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="3" t="n">
         <v>303608689.439143</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="G21" s="3" t="n">
         <v>13686781.0218404</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="3" t="n">
         <v>37063.8082359785</v>
       </c>
-      <c r="J21" s="1" t="n">
+      <c r="J21" s="3" t="n">
         <v>270264143.963157</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="K21" s="3" t="n">
         <v>8856093.31891864</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" s="3" t="n">
         <v>35044787.1512464</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="M21" s="3" t="n">
         <v>7924583.7760388</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="n">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="3" t="n">
         <v>26868983.8031563</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22" s="3" t="n">
         <v>7858930.09013815</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="3" t="n">
         <v>319216334.063236</v>
       </c>
-      <c r="G22" s="1" t="n">
+      <c r="G22" s="3" t="n">
         <v>19817852.0442394</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="1" t="n">
+      <c r="J22" s="3" t="n">
         <v>207309356.168793</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="3" t="n">
         <v>12121014.4459989</v>
       </c>
-      <c r="L22" s="1" t="n">
+      <c r="L22" s="3" t="n">
         <v>37302325.9648146</v>
       </c>
-      <c r="M22" s="1" t="n">
+      <c r="M22" s="3" t="n">
         <v>19690829.3609725</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="n">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="3" t="n">
         <v>24123572.5156996</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="3" t="n">
         <v>16100860.4697803</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="3" t="n">
         <v>325258067.464512</v>
       </c>
-      <c r="G23" s="1" t="n">
+      <c r="G23" s="3" t="n">
         <v>8340782.10298383</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="3" t="n">
         <v>5114.29112391161</v>
       </c>
-      <c r="J23" s="1" t="n">
+      <c r="J23" s="3" t="n">
         <v>160409604.296145</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="K23" s="3" t="n">
         <v>1905747.22003095</v>
       </c>
-      <c r="L23" s="1" t="n">
+      <c r="L23" s="3" t="n">
         <v>52142919.6986859</v>
       </c>
-      <c r="M23" s="1" t="n">
+      <c r="M23" s="3" t="n">
         <v>9179283.46021714</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="n">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="3" t="n">
         <v>21022341.5761867</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="3" t="n">
         <v>10744337.7150526</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="3" t="n">
         <v>275175400.618066</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="3" t="n">
         <v>26271391.1738305</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="3" t="n">
         <v>133066673.804421</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="K24" s="3" t="n">
         <v>22714658.0313958</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" s="3" t="n">
         <v>56836584.0013261</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" s="3" t="n">
         <v>14314828.8392056</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="n">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="3" t="n">
         <v>19165698.3813479</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="3" t="n">
         <v>8494869.5192745</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="3" t="n">
         <v>257984849.102384</v>
       </c>
-      <c r="G25" s="1" t="n">
+      <c r="G25" s="3" t="n">
         <v>18091400.8989403</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="1" t="n">
+      <c r="J25" s="3" t="n">
         <v>122061124.952094</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="3" t="n">
         <v>30661993.7812845</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" s="3" t="n">
         <v>43935327.5641738</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="M25" s="3" t="n">
         <v>4103631.28906336</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="n">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="3" t="n">
         <v>112250483.587701</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="3" t="n">
         <v>33287157.4858717</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26" s="3" t="n">
         <v>275892754.842061</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="G26" s="3" t="n">
         <v>139216274.529899</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="3" t="n">
         <v>128199.954123332</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="J26" s="3" t="n">
         <v>1345058324.78294</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="3" t="n">
         <v>219850836.456831</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" s="3" t="n">
         <v>453762436.787296</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" s="3" t="n">
         <v>121340229.966299</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="n">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="3" t="n">
         <v>20353519.6307272</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="3" t="n">
         <v>9818399.39250168</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27" s="3" t="n">
         <v>181166602.192557</v>
       </c>
-      <c r="G27" s="1" t="n">
+      <c r="G27" s="3" t="n">
         <v>22131003.0579691</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="3" t="n">
         <v>4976.80806289065</v>
       </c>
-      <c r="J27" s="1" t="n">
+      <c r="J27" s="3" t="n">
         <v>161570953.3426</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="K27" s="3" t="n">
         <v>31098813.5723637</v>
       </c>
-      <c r="L27" s="1" t="n">
+      <c r="L27" s="3" t="n">
         <v>23488924.8341158</v>
       </c>
-      <c r="M27" s="1" t="n">
+      <c r="M27" s="3" t="n">
         <v>4428325.34648321</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="n">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="3" t="n">
         <v>26474839.314064</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28" s="3" t="n">
         <v>9737989.59006797</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28" s="3" t="n">
         <v>333831888.427004</v>
       </c>
-      <c r="G28" s="1" t="n">
+      <c r="G28" s="3" t="n">
         <v>35490125.0218039</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="3" t="n">
         <v>11383.2196553877</v>
       </c>
-      <c r="I28" s="1" t="n">
+      <c r="I28" s="3" t="n">
         <v>9284.24618337483</v>
       </c>
-      <c r="J28" s="1" t="n">
+      <c r="J28" s="3" t="n">
         <v>188378625.43308</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="3" t="n">
         <v>10966898.1894149</v>
       </c>
-      <c r="L28" s="1" t="n">
+      <c r="L28" s="3" t="n">
         <v>35910263.6061965</v>
       </c>
-      <c r="M28" s="1" t="n">
+      <c r="M28" s="3" t="n">
         <v>22544552.6804088</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="n">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="3" t="n">
         <v>17772622.7476973</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="3" t="n">
         <v>7615542.98437207</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29" s="3" t="n">
         <v>245891080.956006</v>
       </c>
-      <c r="G29" s="1" t="n">
+      <c r="G29" s="3" t="n">
         <v>19899416.7624035</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" s="3" t="n">
         <v>7521.24193280458</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="J29" s="3" t="n">
         <v>129339433.740875</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="3" t="n">
         <v>8221636.06160569</v>
       </c>
-      <c r="L29" s="1" t="n">
+      <c r="L29" s="3" t="n">
         <v>25756862.5554212</v>
       </c>
-      <c r="M29" s="1" t="n">
+      <c r="M29" s="3" t="n">
         <v>4683607.86613582</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="n">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="3" t="n">
         <v>16129407.7629395</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30" s="3" t="n">
         <v>9059684.3146847</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="3" t="n">
         <v>199471452.698039</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="3" t="n">
         <v>2332213.42147912</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="1" t="n">
+      <c r="J30" s="3" t="n">
         <v>94441014.9742759</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="3" t="n">
         <v>3461695.87823523</v>
       </c>
-      <c r="L30" s="1" t="n">
+      <c r="L30" s="3" t="n">
         <v>37563124.5647459</v>
       </c>
-      <c r="M30" s="1" t="n">
+      <c r="M30" s="3" t="n">
         <v>6443280.14091224</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="n">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="3" t="n">
         <v>21367991.8864098</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="3" t="n">
         <v>10258967.9803571</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F31" s="3" t="n">
         <v>256151737.902057</v>
       </c>
-      <c r="G31" s="1" t="n">
+      <c r="G31" s="3" t="n">
         <v>16142411.0020037</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="1" t="n">
+      <c r="I31" s="3" t="n">
         <v>7224.96276470517</v>
       </c>
-      <c r="J31" s="1" t="n">
+      <c r="J31" s="3" t="n">
         <v>121069633.149812</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="3" t="n">
         <v>10012519.6362171</v>
       </c>
-      <c r="L31" s="1" t="n">
+      <c r="L31" s="3" t="n">
         <v>47097637.0617212</v>
       </c>
-      <c r="M31" s="1" t="n">
+      <c r="M31" s="3" t="n">
         <v>4394134.87002995</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="n">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="3" t="n">
         <v>94903582.7931644</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32" s="3" t="n">
         <v>23071205.5750733</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32" s="3" t="n">
         <v>111850651.149087</v>
       </c>
-      <c r="G32" s="1" t="n">
+      <c r="G32" s="3" t="n">
         <v>56800024.3903251</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I32" s="1" t="n">
+      <c r="I32" s="3" t="n">
         <v>158798.71103337</v>
       </c>
-      <c r="J32" s="1" t="n">
+      <c r="J32" s="3" t="n">
         <v>850064948.733058</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="3" t="n">
         <v>74416401.9611354</v>
       </c>
-      <c r="L32" s="1" t="n">
+      <c r="L32" s="3" t="n">
         <v>93547817.3246906</v>
       </c>
-      <c r="M32" s="1" t="n">
+      <c r="M32" s="3" t="n">
         <v>10098964.8403929</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="n">
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="3" t="n">
         <v>37223660.9459737</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="3" t="n">
         <v>18962053.7390759</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33" s="3" t="n">
         <v>295633444.950391</v>
       </c>
-      <c r="G33" s="1" t="n">
+      <c r="G33" s="3" t="n">
         <v>58911984.3331487</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="3" t="n">
         <v>37456.7250127195</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="3" t="n">
         <v>17657.2695050225</v>
       </c>
-      <c r="J33" s="1" t="n">
+      <c r="J33" s="3" t="n">
         <v>277404505.444201</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="3" t="n">
         <v>69031581.9883831</v>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="L33" s="3" t="n">
         <v>42470931.9344222</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="M33" s="3" t="n">
         <v>3644303.34775799</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="n">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="3" t="n">
         <v>29732154.9208428</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34" s="3" t="n">
         <v>11664540.7733712</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34" s="3" t="n">
         <v>313234278.266947</v>
       </c>
-      <c r="G34" s="1" t="n">
+      <c r="G34" s="3" t="n">
         <v>9399843.5662626</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="1" t="n">
+      <c r="J34" s="3" t="n">
         <v>190245919.051562</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="3" t="n">
         <v>6405603.16057246</v>
       </c>
-      <c r="L34" s="1" t="n">
+      <c r="L34" s="3" t="n">
         <v>42507647.760649</v>
       </c>
-      <c r="M34" s="1" t="n">
+      <c r="M34" s="3" t="n">
         <v>3112364.65412243</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="n">
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="3" t="n">
         <v>33031748.6865644</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="3" t="n">
         <v>13190071.371505</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35" s="3" t="n">
         <v>335859262.630637</v>
       </c>
-      <c r="G35" s="1" t="n">
+      <c r="G35" s="3" t="n">
         <v>42141666.1330317</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="1" t="n">
+      <c r="J35" s="3" t="n">
         <v>197371323.186141</v>
       </c>
-      <c r="K35" s="1" t="n">
+      <c r="K35" s="3" t="n">
         <v>6797100.61049111</v>
       </c>
-      <c r="L35" s="1" t="n">
+      <c r="L35" s="3" t="n">
         <v>45565839.8606534</v>
       </c>
-      <c r="M35" s="1" t="n">
+      <c r="M35" s="3" t="n">
         <v>35233871.254977</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="n">
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="3" t="n">
         <v>29495737.2739559</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E36" s="3" t="n">
         <v>7173354.60812203</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36" s="3" t="n">
         <v>268162923.673117</v>
       </c>
-      <c r="G36" s="1" t="n">
+      <c r="G36" s="3" t="n">
         <v>22548203.7797881</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I36" s="1" t="n">
+      <c r="I36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J36" s="1" t="n">
+      <c r="J36" s="3" t="n">
         <v>129312341.146743</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="3" t="n">
         <v>34860633.7920577</v>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="L36" s="3" t="n">
         <v>43872997.9061834</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="M36" s="3" t="n">
         <v>18256612.899465</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="n">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="3" t="n">
         <v>20165639.8390342</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="3" t="n">
         <v>8278058.28421813</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37" s="3" t="n">
         <v>183887819.118098</v>
       </c>
-      <c r="G37" s="1" t="n">
+      <c r="G37" s="3" t="n">
         <v>17084757.7456501</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="1" t="n">
+      <c r="J37" s="3" t="n">
         <v>93057558.0943287</v>
       </c>
-      <c r="K37" s="1" t="n">
+      <c r="K37" s="3" t="n">
         <v>16922334.3908226</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="L37" s="3" t="n">
         <v>34753982.9485387</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="M37" s="3" t="n">
         <v>8444221.28538469</v>
       </c>
     </row>
@@ -3061,7 +3069,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomRight" activeCell="D38" activeCellId="1" sqref="F1:G1 D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3091,1613 +3099,1613 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="7" t="n">
         <v>632.56</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="7" t="n">
         <v>405.11</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="7" t="n">
         <v>1837.13</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="7" t="n">
         <v>65.39</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="7" t="n">
         <v>31.87</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>10.69</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="7" t="n">
         <v>54.6</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="7" t="n">
         <v>501.39</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="7" t="n">
         <v>392.03</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="7" t="n">
         <v>129.55</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="7" t="n">
         <v>722.65</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7" t="n">
         <v>17.65</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="7" t="n">
         <v>61.34</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="7" t="n">
         <v>1171.89</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="7" t="n">
         <v>4.57</v>
       </c>
-      <c r="H3" s="5" t="n">
+      <c r="H3" s="7" t="n">
         <v>412.17</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>323.94</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="7" t="n">
         <v>346.72</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="7" t="n">
         <v>248.95</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="7" t="n">
         <v>379.58</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="7" t="n">
         <v>28.71</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="7" t="n">
         <v>1408.24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7" t="n">
         <v>16.16</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="7" t="n">
         <v>52.26</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="7" t="n">
         <v>1664.79</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="7" t="n">
         <v>3.94</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="7" t="n">
         <v>461.25</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>653.34</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="7" t="n">
         <v>520.55</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="7" t="n">
         <v>191.58</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="7" t="n">
         <v>303.96</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="7" t="n">
         <v>28.92</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="7" t="n">
         <v>1660.69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="7" t="n">
         <v>15.81</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="7" t="n">
         <v>58.81</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="7" t="n">
         <v>1146.3</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="7" t="n">
         <v>4.33</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="7" t="n">
         <v>476.4</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>672.95</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="7" t="n">
         <v>577.95</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="7" t="n">
         <v>161.45</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="7" t="n">
         <v>255.65</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="7" t="n">
         <v>27.44</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="7" t="n">
         <v>1798.18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7" t="n">
         <v>16.01</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="7" t="n">
         <v>50.86</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="7" t="n">
         <v>1474.7</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>3.58</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>462.52</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>655.84</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="7" t="n">
         <v>611.86</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="7" t="n">
         <v>146.23</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="7" t="n">
         <v>227.61</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="7" t="n">
         <v>27.2</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="7" t="n">
         <v>1834.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="7" t="n">
         <v>16.23</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="7" t="n">
         <v>49.7</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="n">
         <v>4.74</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="7" t="n">
         <v>465.02</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="7" t="n">
         <v>682.85</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="7" t="n">
         <v>646.03</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="7" t="n">
         <v>133.5</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="7" t="n">
         <v>227.69</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="7" t="n">
         <v>27.53</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="7" t="n">
         <v>1922.37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="n">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="7" t="n">
         <v>523.06</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="7" t="n">
         <v>390.81</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="7" t="n">
         <v>2327.96</v>
       </c>
-      <c r="G8" s="5" t="n">
+      <c r="G8" s="7" t="n">
         <v>4.17</v>
       </c>
-      <c r="H8" s="5" t="n">
+      <c r="H8" s="7" t="n">
         <v>44.86</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="7" t="n">
         <v>13.1</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="7" t="n">
         <v>76.21</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="7" t="n">
         <v>519.52</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="7" t="n">
         <v>363.77</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="7" t="n">
         <v>67.21</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="7" t="n">
         <v>800.96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="n">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7" t="n">
         <v>17.63</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="7" t="n">
         <v>62.91</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="7" t="n">
         <v>1188.62</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="7" t="n">
         <v>3.98</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="7" t="n">
         <v>419.77</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="7" t="n">
         <v>441.99</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="7" t="n">
         <v>381.11</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="7" t="n">
         <v>218.26</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="7" t="n">
         <v>356.91</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="7" t="n">
         <v>30.02</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="7" t="n">
         <v>1458.53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="n">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="7" t="n">
         <v>17.2</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="7" t="n">
         <v>50.48</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="7" t="n">
         <v>1524.74</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="7" t="n">
         <v>3.79</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="7" t="n">
         <v>475.6</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="7" t="n">
         <v>666.74</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="7" t="n">
         <v>519.07</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="7" t="n">
         <v>178.18</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="7" t="n">
         <v>286.85</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="7" t="n">
         <v>29.76</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="7" t="n">
         <v>1731.01</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="n">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="7" t="n">
         <v>16.25</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="7" t="n">
         <v>53.91</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="7" t="n">
         <v>1115.23</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="7" t="n">
         <v>3.5</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="7" t="n">
         <v>472.77</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="7" t="n">
         <v>656.45</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="7" t="n">
         <v>544.13</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="7" t="n">
         <v>145.4</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="7" t="n">
         <v>240.4</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="7" t="n">
         <v>27.72</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="7" t="n">
         <v>1842.36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="n">
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="7" t="n">
         <v>16.66</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="7" t="n">
         <v>58.48</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="7" t="n">
         <v>1393.82</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="7" t="n">
         <v>3.71</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="7" t="n">
         <v>451.53</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="7" t="n">
         <v>658.9</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="7" t="n">
         <v>571.75</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="7" t="n">
         <v>128.09</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="7" t="n">
         <v>211.2</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="7" t="n">
         <v>27.31</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="7" t="n">
         <v>1929.33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="n">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="7" t="n">
         <v>16.87</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="7" t="n">
         <v>60.9</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="7" t="n">
         <v>413.79</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="n">
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="n">
         <v>449.52</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="7" t="n">
         <v>680.8</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="7" t="n">
         <v>586.4</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="7" t="n">
         <v>116.05</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="7" t="n">
         <v>204.9</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="7" t="n">
         <v>27.23</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="7" t="n">
         <v>2003.65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="n">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="7" t="n">
         <v>518.55</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="7" t="n">
         <v>386.91</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="7" t="n">
         <v>1901.26</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="7" t="n">
         <v>3.35</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="7" t="n">
         <v>114.38</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="7" t="n">
         <v>14.12</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="7" t="n">
         <v>82.19</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="7" t="n">
         <v>548.78</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="7" t="n">
         <v>364.56</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="7" t="n">
         <v>66.02</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="7" t="n">
         <v>819.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="n">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="7" t="n">
         <v>17.71</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="7" t="n">
         <v>62.35</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="7" t="n">
         <v>1254.13</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="7" t="n">
         <v>426.37</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="7" t="n">
         <v>441.85</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="7" t="n">
         <v>403.15</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="7" t="n">
         <v>209.83</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="7" t="n">
         <v>355.23</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="7" t="n">
         <v>30.1</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="7" t="n">
         <v>1436.52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1" t="n">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="7" t="n">
         <v>17.4</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="7" t="n">
         <v>47.84</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="7" t="n">
         <v>1549.99</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="7" t="n">
         <v>3.49</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="7" t="n">
         <v>473.51</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="7" t="n">
         <v>659.81</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="7" t="n">
         <v>524.19</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="7" t="n">
         <v>173.7</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="7" t="n">
         <v>280.47</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="7" t="n">
         <v>29.42</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="7" t="n">
         <v>1690.75</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="n">
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="7" t="n">
         <v>17.1</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="7" t="n">
         <v>53.96</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="7" t="n">
         <v>1093.97</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="n">
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="n">
         <v>482.69</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="7" t="n">
         <v>661.21</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="7" t="n">
         <v>552.32</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="7" t="n">
         <v>144.42</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="7" t="n">
         <v>235.36</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="7" t="n">
         <v>27.59</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="7" t="n">
         <v>1856.09</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="n">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="7" t="n">
         <v>17.07</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="7" t="n">
         <v>58.07</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="7" t="n">
         <v>1407.42</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="7" t="n">
         <v>4.19</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="7" t="n">
         <v>458.67</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="7" t="n">
         <v>653.57</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="7" t="n">
         <v>567.07</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="7" t="n">
         <v>128.95</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="7" t="n">
         <v>205.35</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="7" t="n">
         <v>26.89</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="7" t="n">
         <v>1942.48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="1" t="n">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="7" t="n">
         <v>17.06</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="7" t="n">
         <v>54.85</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="7" t="n">
         <v>497.61</v>
       </c>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="7" t="n">
         <v>3.89</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="7" t="n">
         <v>443.4</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="7" t="n">
         <v>658.91</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="7" t="n">
         <v>574.91</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="7" t="n">
         <v>122.13</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="7" t="n">
         <v>193.12</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="7" t="n">
         <v>25.87</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="7" t="n">
         <v>1964.27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="1" t="n">
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="7" t="n">
         <v>566.85</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="7" t="n">
         <v>412.58</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="7" t="n">
         <v>1827.25</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="7" t="n">
         <v>18.8</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="7" t="n">
         <v>39.25</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="7" t="n">
         <v>0.58</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="7" t="n">
         <v>60.69</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="7" t="n">
         <v>535.5</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="7" t="n">
         <v>435.39</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="7" t="n">
         <v>102.84</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="7" t="n">
         <v>770.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="n">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="7" t="n">
         <v>17.42</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="7" t="n">
         <v>63.11</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="7" t="n">
         <v>1157.6</v>
       </c>
-      <c r="G21" s="5" t="n">
+      <c r="G21" s="7" t="n">
         <v>2.85</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="7" t="n">
         <v>422.56</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="7" t="n">
         <v>377.87</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="7" t="n">
         <v>344.39</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="7" t="n">
         <v>235.79</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="7" t="n">
         <v>363.58</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="7" t="n">
         <v>29.28</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="7" t="n">
         <v>1456.22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="n">
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="7" t="n">
         <v>16.4</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="7" t="n">
         <v>53.92</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="7" t="n">
         <v>1535.64</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="7" t="n">
         <v>3.31</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="7" t="n">
         <v>463.48</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="7" t="n">
         <v>655.16</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="7" t="n">
         <v>493.5</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="7" t="n">
         <v>183.83</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="7" t="n">
         <v>287.45</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="7" t="n">
         <v>28.92</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="7" t="n">
         <v>1740.17</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="n">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="7" t="n">
         <v>15.92</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="7" t="n">
         <v>52.84</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="7" t="n">
         <v>1000.4</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="n">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="n">
         <v>478.35</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="7" t="n">
         <v>654.54</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="7" t="n">
         <v>523.68</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="7" t="n">
         <v>156.23</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="L23" s="7" t="n">
         <v>239.97</v>
       </c>
-      <c r="M23" s="5" t="n">
+      <c r="M23" s="7" t="n">
         <v>27.22</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="7" t="n">
         <v>1882.67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="n">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="7" t="n">
         <v>16.04</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="7" t="n">
         <v>51.36</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="7" t="n">
         <v>1465.08</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="7" t="n">
         <v>4.8</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="7" t="n">
         <v>461.9</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="7" t="n">
         <v>666.19</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="7" t="n">
         <v>555.03</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="7" t="n">
         <v>134.61</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="L24" s="7" t="n">
         <v>213.28</v>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="M24" s="7" t="n">
         <v>27.25</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="7" t="n">
         <v>1980.39</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="1" t="n">
+      <c r="B25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="7" t="n">
         <v>15.78</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="7" t="n">
         <v>56.56</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="7" t="n">
         <v>382.3</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="7" t="n">
         <v>4.94</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="7" t="n">
         <v>449.89</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="7" t="n">
         <v>666.21</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="7" t="n">
         <v>571.09</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="7" t="n">
         <v>120.36</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="7" t="n">
         <v>202.02</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="7" t="n">
         <v>26.7</v>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="N25" s="7" t="n">
         <v>2007.28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="n">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="7" t="n">
         <v>559.64</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="7" t="n">
         <v>400.32</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="7" t="n">
         <v>2175.18</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="7" t="n">
         <v>20.45</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="7" t="n">
         <v>99.4</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="7" t="n">
         <v>11.1</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="7" t="n">
         <v>59.99</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="7" t="n">
         <v>518.82</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="L26" s="7" t="n">
         <v>373.14</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="M26" s="7" t="n">
         <v>96.95</v>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="N26" s="7" t="n">
         <v>748.09</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="n">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="7" t="n">
         <v>17.66</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="7" t="n">
         <v>63.74</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="7" t="n">
         <v>1125.62</v>
       </c>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="7" t="n">
         <v>3.62</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="7" t="n">
         <v>425.35</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="7" t="n">
         <v>370.73</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="7" t="n">
         <v>356.56</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="7" t="n">
         <v>235.72</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="L27" s="7" t="n">
         <v>368.23</v>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="M27" s="7" t="n">
         <v>29.66</v>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="N27" s="7" t="n">
         <v>1459.44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="n">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="7" t="n">
         <v>16.44</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="7" t="n">
         <v>52.15</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="7" t="n">
         <v>1559.9</v>
       </c>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="7" t="n">
         <v>3.91</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="7" t="n">
         <v>464.87</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="7" t="n">
         <v>658.29</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="7" t="n">
         <v>475.7</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="7" t="n">
         <v>182.31</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="L28" s="7" t="n">
         <v>290.08</v>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="M28" s="7" t="n">
         <v>28.9</v>
       </c>
-      <c r="N28" s="5" t="n">
+      <c r="N28" s="7" t="n">
         <v>1725.53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="n">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="7" t="n">
         <v>15.81</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="7" t="n">
         <v>54.75</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="7" t="n">
         <v>938.79</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="7" t="n">
         <v>3.7</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="7" t="n">
         <v>477.53</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="7" t="n">
         <v>664.48</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="7" t="n">
         <v>534.05</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="7" t="n">
         <v>151.39</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="L29" s="7" t="n">
         <v>244.65</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M29" s="7" t="n">
         <v>27.29</v>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="N29" s="7" t="n">
         <v>1869.09</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="n">
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="7" t="n">
         <v>16.1</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="7" t="n">
         <v>48.68</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="7" t="n">
         <v>1525.65</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="G30" s="7" t="n">
         <v>3.85</v>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="7" t="n">
         <v>463.84</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="7" t="n">
         <v>660.91</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="7" t="n">
         <v>554.88</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="7" t="n">
         <v>131.6</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="L30" s="7" t="n">
         <v>212.92</v>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="M30" s="7" t="n">
         <v>26.8</v>
       </c>
-      <c r="N30" s="5" t="n">
+      <c r="N30" s="7" t="n">
         <v>1958.57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="n">
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="7" t="n">
         <v>16.23</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="7" t="n">
         <v>47.72</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="7" t="n">
         <v>408.99</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="7" t="n">
         <v>4.78</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="7" t="n">
         <v>455.38</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="7" t="n">
         <v>666.69</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="7" t="n">
         <v>579.43</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="7" t="n">
         <v>125.23</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="L31" s="7" t="n">
         <v>201.95</v>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="M31" s="7" t="n">
         <v>25.95</v>
       </c>
-      <c r="N31" s="5" t="n">
+      <c r="N31" s="7" t="n">
         <v>2000.49</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="1" t="n">
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="7" t="n">
         <v>605.86</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="7" t="n">
         <v>403.92</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="7" t="n">
         <v>1957.92</v>
       </c>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="7" t="n">
         <v>37.33</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="7" t="n">
         <v>92.96</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="7" t="n">
         <v>10.58</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="7" t="n">
         <v>62.46</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="7" t="n">
         <v>518.2</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="7" t="n">
         <v>445.26</v>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="M32" s="7" t="n">
         <v>117.13</v>
       </c>
-      <c r="N32" s="5" t="n">
+      <c r="N32" s="7" t="n">
         <v>740.74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="n">
+      <c r="B33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="7" t="n">
         <v>17.74</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="7" t="n">
         <v>63.32</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="7" t="n">
         <v>1058.46</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="7" t="n">
         <v>3.36</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="7" t="n">
         <v>417.82</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="7" t="n">
         <v>370.64</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="7" t="n">
         <v>359.27</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="7" t="n">
         <v>237.01</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="L33" s="7" t="n">
         <v>374.55</v>
       </c>
-      <c r="M33" s="5" t="n">
+      <c r="M33" s="7" t="n">
         <v>29.07</v>
       </c>
-      <c r="N33" s="5" t="n">
+      <c r="N33" s="7" t="n">
         <v>1438.72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="n">
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D34" s="5" t="n">
+      <c r="D34" s="7" t="n">
         <v>16.75</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="7" t="n">
         <v>54.71</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="7" t="n">
         <v>1263.07</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="7" t="n">
         <v>3.28</v>
       </c>
-      <c r="H34" s="5" t="n">
+      <c r="H34" s="7" t="n">
         <v>476.56</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="7" t="n">
         <v>685.38</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="7" t="n">
         <v>502.32</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="7" t="n">
         <v>188.9</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="L34" s="7" t="n">
         <v>310.75</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="M34" s="7" t="n">
         <v>30.03</v>
       </c>
-      <c r="N34" s="5" t="n">
+      <c r="N34" s="7" t="n">
         <v>1761.78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="n">
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="7" t="n">
         <v>15.65</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="7" t="n">
         <v>57.5</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="7" t="n">
         <v>936.99</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="7" t="n">
         <v>4.04</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="7" t="n">
         <v>478.26</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="7" t="n">
         <v>663.79</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="7" t="n">
         <v>571.77</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="7" t="n">
         <v>153.38</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="7" t="n">
         <v>251.42</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="M35" s="7" t="n">
         <v>27.32</v>
       </c>
-      <c r="N35" s="5" t="n">
+      <c r="N35" s="7" t="n">
         <v>1822.25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="n">
+      <c r="B36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="D36" s="5" t="n">
+      <c r="D36" s="7" t="n">
         <v>16.23</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="7" t="n">
         <v>61.88</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="7" t="n">
         <v>1379.22</v>
       </c>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="7" t="n">
         <v>5.46</v>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H36" s="7" t="n">
         <v>468.27</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="7" t="n">
         <v>676.9</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="7" t="n">
         <v>626.79</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="7" t="n">
         <v>135.65</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="L36" s="7" t="n">
         <v>226.23</v>
       </c>
-      <c r="M36" s="5" t="n">
+      <c r="M36" s="7" t="n">
         <v>27.43</v>
       </c>
-      <c r="N36" s="5" t="n">
+      <c r="N36" s="7" t="n">
         <v>1935.4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="n">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="7" t="n">
         <v>15.63</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="7" t="n">
         <v>56.66</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="7" t="n">
         <v>499.8</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="7" t="n">
         <v>3.52</v>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H37" s="7" t="n">
         <v>446.04</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="7" t="n">
         <v>659.48</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="7" t="n">
         <v>608.82</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="7" t="n">
         <v>119.77</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="L37" s="7" t="n">
         <v>210.55</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="M37" s="7" t="n">
         <v>25.52</v>
       </c>
-      <c r="N37" s="5" t="n">
+      <c r="N37" s="7" t="n">
         <v>1887.18</v>
       </c>
     </row>

--- a/scripts/bootstrap/measurement_data/synthetic_gut.xlsx
+++ b/scripts/bootstrap/measurement_data/synthetic_gut.xlsx
@@ -129,7 +129,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Roseburia intestinalis L1-82, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">FC counts values per time-point for strain Roseburia intestinalis L1-82 in Cells/mL, use a period (.) as the decimal separator</t>
         </r>
       </text>
     </comment>
@@ -153,7 +153,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Blautia hydrogenotrophica DSM 10507, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">FC counts values per time-point for strain Blautia hydrogenotrophica DSM 10507 in Cells/mL, use a period (.) as the decimal separator</t>
         </r>
       </text>
     </comment>
@@ -177,7 +177,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Prevotella copri DSM 18205, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">FC counts values per time-point for strain Prevotella copri DSM 18205 in Cells/mL, use a period (.) as the decimal separator</t>
         </r>
       </text>
     </comment>
@@ -201,7 +201,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Bacteroides thetaiotaomicron VPI-5482, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">FC counts values per time-point for strain Bacteroides thetaiotaomicron VPI-5482 in Cells/mL, use a period (.) as the decimal separator</t>
         </r>
       </text>
     </comment>
@@ -225,7 +225,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Abundances values per time-point for strain Collinsella aerofaciens RCC 1377, use a period (.) as the decimal separator.</t>
+          <t xml:space="preserve">FC counts values per time-point for strain Collinsella aerofaciens RCC 1377 in Cells/mL, use a period (.) as the decimal separator</t>
         </r>
       </text>
     </comment>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Time</t>
   </si>
   <si>
-    <t xml:space="preserve">Community FC</t>
+    <t xml:space="preserve">Community FC (ML)</t>
   </si>
   <si>
     <t xml:space="preserve">biorep1</t>
@@ -460,34 +460,34 @@
     <t xml:space="preserve">biorep6</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseburia intestinalis L1-82 rRNA reads</t>
+    <t xml:space="preserve">Roseburia intestinalis L1-82 FC counts (16S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseburia intestinalis L1-82 rRNA reads STD</t>
+    <t xml:space="preserve">Roseburia intestinalis L1-82 FC counts (16S) STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Blautia hydrogenotrophica DSM 10507 rRNA reads</t>
+    <t xml:space="preserve">Blautia hydrogenotrophica DSM 10507 FC counts (16S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Blautia hydrogenotrophica DSM 10507 rRNA reads STD</t>
+    <t xml:space="preserve">Blautia hydrogenotrophica DSM 10507 FC counts (16S) STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevotella copri DSM 18205 rRNA reads</t>
+    <t xml:space="preserve">Prevotella copri DSM 18205 FC counts (16S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevotella copri DSM 18205 rRNA reads STD</t>
+    <t xml:space="preserve">Prevotella copri DSM 18205 FC counts (16S) STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 rRNA reads</t>
+    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 FC counts (16S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 rRNA reads STD</t>
+    <t xml:space="preserve">Bacteroides thetaiotaomicron VPI-5482 FC counts (16S) STD</t>
   </si>
   <si>
-    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 rRNA reads</t>
+    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 FC counts (16S)</t>
   </si>
   <si>
-    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 rRNA reads STD</t>
+    <t xml:space="preserve">Collinsella aerofaciens RCC 1377 FC counts (16S) STD</t>
   </si>
   <si>
     <t xml:space="preserve">pyruvate</t>
@@ -939,11 +939,11 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="D38" activeCellId="1" sqref="F1:G1 D38"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="1" sqref="F1:G1 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -951,7 +951,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1498,10 +1498,10 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1510,8 +1510,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="35.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.6"/>
@@ -1532,10 +1532,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1544,10 +1544,10 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1556,10 +1556,10 @@
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
